--- a/data/hotels_by_city/Dallas/Dallas_shard_379.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_379.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>lynnc701</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>harris55_99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r528053976-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
     <t>The location was wonderful because the wedding was only 3 miles away and being a Holiday Inn Express I knew what to expect. I wasn't disappointed. The IHG hotels are always worldwide. I look for one wherever and whenever I travel.</t>
   </si>
   <si>
+    <t>88reisah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r522000463-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>reisa h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r521981128-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -219,6 +231,9 @@
     <t>Extremely clean hotel.  Looks brand new.  We were there for a birthday getaway weekend.  The hotel is close to anything that you could need in the Frisco or McKinney area.  Lots of great shopping and restaurants within an easy driving distance.  Our view was of the baseball fields at Craig Ranch behind the hotel.  Our son had fun watching some kids practicing.  The pool was nice and very clean and we had it to ourselves.  I liked that the shades in the room kept the room very dark.  The A/C kept the room as cool as we wanted.  The breakfast area was clean and the staff kept all of the usual breakfast foods supplied.  Our son kept calling it a 5-star hotel.  :)  We would definitely stay there again without hesitation.  The staff that we encountered were friendly.More</t>
   </si>
   <si>
+    <t>galvanize83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r516308440-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -238,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>duderthegreat</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r515916277-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
@@ -264,6 +282,9 @@
 For me the best part of this stay was how quiet the rooms were.  The fact that the hotel is located near a softball field is a plus to me...We had a great experience staying at this hotel!  The staff was very friendly and accommodating.  I'll absolutely stay here again on my next visit to the area.  This is my new go-to hotel for the area.We were in the area for a long awaited trip to see The Star in Frisco.  I felt like we were in the middle of everything, yet close enough to not be in the busyness of Frisco, McKinney, or Allen.  The area is constantly evolving, but due to it's exact location, I don't think it'll be affected by the change happening to the area it is located.We stayed in a 2 queen bed suite.  The room was clean from top to bottom, and the modern and colorful decor was such a great touch.  It instantly kind of elevated my already happy vacation mood.  Something that really impressed me was how fast the TV was functioning between switching channels.  I've stayed in plenty of 4 and 5 star hotels (new and remodeled ones) and the TVs weren't nearly as good as the setup here.  Honestly, the same can be said for the room decor, too.  The Wi-fi was solid and we didn't have any drops in service--and we used the Wi-Fi a ton.For me the best part of this stay was how quiet the rooms were.  The fact that the hotel is located near a softball field is a plus to me because at night everybody goes home.  That said, you don't have to worry about any loudness coming from the area surrounding the hotel.  At one point when I was in my room by myself, the A/C had turned off for a moment (like all of them do).  I sat in silence, and couldn't hear anything inside or outside the room.  That is a major plus.  My friends staying across the hall (highway side) also commented about the quietness of their room.The rest of the property was impressive to say the least.  We often sat outside and chatted.  Again it was peaceful and quiet.  At one point, I think I met one of the owners.  He was very cordial, and took a moment to say hello and genuinely ask us about our plans for the area.  He also gave a great recommendation for a "restaurant row" area in nearby Frisco.  Truly a class act.More</t>
   </si>
   <si>
+    <t>chris v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r515900787-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -274,6 +295,9 @@
   </si>
   <si>
     <t>Clean, Classy, Friendly all words that describe my experience here. Rooms were kept clean! Breakfast was amazing with good selection! The staff always greeted me with a smile and a kind word! Great overall experience!</t>
+  </si>
+  <si>
+    <t>littleyao</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r507960364-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
@@ -319,6 +343,9 @@
 -This hotel is located right in front of a huge sporting area that includes many soccer fields, baseball fields, and a hockey rink.  This means that many MANY youth sports teams stay here....which means that there are MANY kids running around in this hotel...at all hours.  We could hear them in the room upstairs...up and down the hallway.  We weren't the only ones who heard people...my parents down the hall heard...We were visiting for a wedding and we booked about 6 rooms in the hotel.  We had grandparents, parents, and kids ranging from 1-12 years old. We stayed on the 2nd floor in a standard room with 2 queen beds.  PROS:-the decor is modern-the beds and linens are comfy-the bathrooms are pretty clean-located right by the highway, but never seemed loud-lobby is a nice place to lounge-free breakfast in the morningCONS:-Even though it appeared clean, there was something that irked me...there is a half-wall between the toilet and the sink area and if you went on the toilet side of the wall (which can't be seen at the door), there were 3 smudges of something on the wall.  Kind of like someone picked their nose and wiped it on the wall...and not in a hidden spot.  Just smudges on the WHITE wall...and the cleaning people somehow missed it?!  That's a red flag to me that maybe the cleaning isn't as thorough.  -This hotel is located right in front of a huge sporting area that includes many soccer fields, baseball fields, and a hockey rink.  This means that many MANY youth sports teams stay here....which means that there are MANY kids running around in this hotel...at all hours.  We could hear them in the room upstairs...up and down the hallway.  We weren't the only ones who heard people...my parents down the hall heard them as well.  -Because of all the kids, realize that the pool will always be crowded.  The water was murky after all these "pool parties."  And again, lots of kids running around the pool.  -The other thing is some of the clientele....when my 9 year old and I walked into the lobby, we were greeted with a woman spanking a tween with her lanyard and screaming at him to face the corner.  Wow.  What a greeting.  The front desk lady apologized for the scene, but this was not a good first impression.  -Breakfast has a decent amount of choices, but some are not too tasty.  The pancake machine is awesome to watch, but the end products are not yummy.  All 4 of my kids couldn't finish their pancakes.  That says a lot.  Overall, it's a good, budget, clean (for the most part) hotel.  But, honestly, we would probably not return to this hotel on another visit.  The clientele it attracts just isn't our cup of tea.  I would rather pay a bit more and stay at a quieter location that doesn't attract large groups of kids.More</t>
   </si>
   <si>
+    <t>erinsman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r502496340-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
 The rooms have modern decor and plenty of plug outlets for your electronic devices, including dedicated USB ports to charge your smartphones and tablets.  There were multiple tabletops (desk, table on wheels, etc) which is a plus when you have a family that needs to eat meals in the room.  The beds were very comfortable and you are provided with both firm and soft pillows so you can choose which one suits your preference.  The bathrooms are very spacious and my wife is a big fan of the mirror, which has built-in lighting behind the mirror on all four sides.  It is almost like the mirror is glowing from behind!  There is DirecTV satellite service here with plenty of TV channels, the room has a mini-fridge and microwave, and there is a Keurig personal coffee machine in the room.  Everything just worked in the room and things were...This hotel is still really new, and it shows!  The decor is modern and things haven't had a chance to be worn out yet.  Check-in was very fast, and it was the only opportunity I had (or even needed) to interact with the staff.  After getting my key card and going to my room on the third floor, I got off the elevator and immediately smelled new carpet.  That was a great sign (almost like that new car smell)!  I found my room, opened the door, and saw more of the same.The rooms have modern decor and plenty of plug outlets for your electronic devices, including dedicated USB ports to charge your smartphones and tablets.  There were multiple tabletops (desk, table on wheels, etc) which is a plus when you have a family that needs to eat meals in the room.  The beds were very comfortable and you are provided with both firm and soft pillows so you can choose which one suits your preference.  The bathrooms are very spacious and my wife is a big fan of the mirror, which has built-in lighting behind the mirror on all four sides.  It is almost like the mirror is glowing from behind!  There is DirecTV satellite service here with plenty of TV channels, the room has a mini-fridge and microwave, and there is a Keurig personal coffee machine in the room.  Everything just worked in the room and things were clean, so I have absolutely no complaints.  I had no problem with noise.Breakfast was exactly what you'd imagine at a Holiday Inn Express, with a variety of hot and cold items.  There are fruit/healthy options as well, and a variety of juices (as well as water and coffee).  It seems that the breakfast area is a little on the small side, but there wasn't a problem finding seating while my family was there.  There is some outdoor seating as well, so if the weather is cooperating, that is a plus.The location of the hotel is just like I like it... suburban, but not so far as to be unnecessarily out of reasonable driving distance to get to shopping/food options.  There are a lot of options on Stacy Rd, which is just down the street from this hotel.If I am in the area again and I can get a reasonable rate at this hotel, I'm definitely staying here again.More</t>
   </si>
   <si>
+    <t>FootlooseFoodiee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r487567435-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>This hotel looks new and has a clean thoughtful design.  The folks behind the front desk were friendly and helpful.  The woman working the breakfast room was warm and motherly, making sure everyone had what they needed and offering choices as she brought in refills.  The variety offered included scrambled eggs, premade omelets, bacon, sausages, biscuits and gravy, a pancake machine, juices, cereals, yogurt, muffins and items for toasting, cinnamon rolls and more.  The quiet room had a comfortable mattress and a choice of pillow firmnesses.  The blackout shade did just that.  Lots of outlets and USB ports are available.   The hotel was not walkable to anything but the sports complex across the street, so a vehicle is needed to reach shopping and restaurants.  Freeway access is close by.More</t>
   </si>
   <si>
+    <t>McMarcus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r485700665-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>We stayed two times on different days.The first one was everything right, and enjoyed the hotel.The second one, our room had the bath not properly cleaned, but the Manager, immediately changeed our room and gave us an upgrade. Thats service!!</t>
   </si>
   <si>
+    <t>MsSylviaM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r485099751-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>We had a very enjoyable stay in this new hotel on the south side of McKinney.  The staff was friendly and our room was really nice.  It was quiet and the beds were comfortable.  We particularly liked all the electrical outlets - they were nearly everywhere in the room.  Please note that you will need a car if staying here.  It is close to stores, restaurants, movie theaters and anything else you might need.  However, these places are not within walking distance (except for the McKinney ball fields which are directly across the street).  The hotel is very convenient to Allen, Plano and Frisco as well as McKinney.We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>donbradley1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r477770563-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>ROGER C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r474341130-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -433,6 +475,9 @@
   </si>
   <si>
     <t>Brand new hotel. They're still working out the kinks. The AC stopped working in my room, so I was moved to another. Front desk is helpful. Pool is not open yet. This hotel is reasonably priced for it's location and being brand new.More</t>
+  </si>
+  <si>
+    <t>CharliV02</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r472519605-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
@@ -955,43 +1000,47 @@
       <c r="A2" t="n">
         <v>65121</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156015</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1005,50 +1054,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65121</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1062,50 +1115,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65121</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>156017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1123,50 +1180,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65121</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
       <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>65</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1184,50 +1245,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65121</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1247,50 +1312,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65121</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>77</v>
       </c>
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1310,50 +1379,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65121</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1373,50 +1446,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65121</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>90813</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1434,50 +1511,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65121</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1497,50 +1578,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65121</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1554,50 +1639,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65121</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156024</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1617,50 +1706,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65121</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>16659</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>112</v>
       </c>
-      <c r="L13" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>102</v>
-      </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1680,50 +1773,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65121</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156025</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1737,41 +1834,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65121</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>88122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -1788,56 +1889,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="X15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65121</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156026</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>133</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>120</v>
-      </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1849,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="X16" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_379.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_379.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,264 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>lynnc701</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r607812786-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>10637311</t>
+  </si>
+  <si>
+    <t>607812786</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Good Choice</t>
+  </si>
+  <si>
+    <t>My husband and I went to visit family in McKinney and chose this hotel for the location. It was perfect for that! We found the staff to be very friendly and helpful. The room was clean and comfortable. Breakfast was an added bonus (included). I really enjoyed the coffee and tea available 24/7. It was convenient for shopping at the Allen Outlets. Good choice!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r594659868-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>594659868</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Mr OV Flowers</t>
+  </si>
+  <si>
+    <t>Every thing was very clean and internet connection was excellent felt right at home staff was friendly and helpful will be coming back in the near future next trip will be a vacation and bring the family I’m sure they will enjoy the comfortable beds</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r590022779-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>590022779</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>This is a nice, new facility.  Well apportioned and comfy rooms.  The breakfast was very good and was kept well stocked.  Our only issue was the coffee wasn’t replenished and we didn’t notice until the next morning.   Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r586479070-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>586479070</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>In town for graduation</t>
+  </si>
+  <si>
+    <t>Had reservation from June 7-10. Staff was friendly. I had one ant ( that I saw ) 2 mornings in a row on my bed. When I left for these 2 days there wasn't anyone at the front desk to report. Also housekeeping never completely stocked coffee supplies after first day. Other than that I still would return. My room was on the baseball field side and was quiet later in the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r583336022-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>583336022</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Wife and I stayed on a Sunday night. Check in was great, the property inside is immaculate (it is fairly new). The pool is nice, but no hot tub (yet). We had a room on the 4th floor, (401) facing the HWY. Trust me, I tried to hear noise from the highway, but heard nothing. Everything about the place is exceptional. The room itself was great, and very large. The bed was comfortable. Large window looking out over the city. Lots of convenient plugs. Many TV channels. Only slight downside, give the shower about 1 full minute before getting in, it takes a bit for the hot water to arrive to room 401 (top floor at very end of hall). I have found my new home in the Frisco/McKinney/Plano area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Wife and I stayed on a Sunday night. Check in was great, the property inside is immaculate (it is fairly new). The pool is nice, but no hot tub (yet). We had a room on the 4th floor, (401) facing the HWY. Trust me, I tried to hear noise from the highway, but heard nothing. Everything about the place is exceptional. The room itself was great, and very large. The bed was comfortable. Large window looking out over the city. Lots of convenient plugs. Many TV channels. Only slight downside, give the shower about 1 full minute before getting in, it takes a bit for the hot water to arrive to room 401 (top floor at very end of hall). I have found my new home in the Frisco/McKinney/Plano area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r569877174-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>569877174</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>One Night Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a nice find along our road trip to Dallas.  It is just off the highway, but not sitting right on top of it.  Some traffic noise, but no bother to us because of one or two things...the beds were way to comfy or we were just that tired, or maybe it’s the city girl in me that ignores it.   Quick check in, left before we could have breakfast or use most of the other amenities.  Only thing that I could scrounge up that was a downer is the water pressure for the shower...just don’t except it.  </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r568434879-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>568434879</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Recommend top floor only!</t>
+  </si>
+  <si>
+    <t>I really wanted to rate this hotel higher, but due to the low quality construction, that is not possible.  We asked for a top floor room, but the only one available was on the noisy freeway side.  Our room was on the third floor.  We could tell as soon as the person/s in the room above us got in.  It felt and sounded like an elephant working out up there.  We've had this problem in newly constructed buildings before in TX.  They appear to use unskilled labor and do the bare minimum when it comes to soundproofing, insulation, and sturdiness.  It's as if there's just a piece a plywood between their carpet and your ceiling drywall.  Older buildings are nowhere near this bad.  They were up all night and the stomping kept my husband awake.  Otherwise this was a great place.  The room layout is efficient and there's room to put your stuff where you want.  The bed was very comfortable.  The window shade cuts out nearly all the light, which is great.  The room was clean and nice.  The location is convenient.  The free breakfast was pretty standard, but not as extensive as you would get from Hampton Inn, for example.  The cinnamon rolls are great.  The evening front desk lady was awesome, wish I had taken her name.  If highway noise bothers you, get an even-numbered room, which faces north.  The elevator is by the rooms ending around...I really wanted to rate this hotel higher, but due to the low quality construction, that is not possible.  We asked for a top floor room, but the only one available was on the noisy freeway side.  Our room was on the third floor.  We could tell as soon as the person/s in the room above us got in.  It felt and sounded like an elephant working out up there.  We've had this problem in newly constructed buildings before in TX.  They appear to use unskilled labor and do the bare minimum when it comes to soundproofing, insulation, and sturdiness.  It's as if there's just a piece a plywood between their carpet and your ceiling drywall.  Older buildings are nowhere near this bad.  They were up all night and the stomping kept my husband awake.  Otherwise this was a great place.  The room layout is efficient and there's room to put your stuff where you want.  The bed was very comfortable.  The window shade cuts out nearly all the light, which is great.  The room was clean and nice.  The location is convenient.  The free breakfast was pretty standard, but not as extensive as you would get from Hampton Inn, for example.  The cinnamon rolls are great.  The evening front desk lady was awesome, wish I had taken her name.  If highway noise bothers you, get an even-numbered room, which faces north.  The elevator is by the rooms ending around x13, and ice is by the elevators.  I can only assume that if we had a top floor even-numbered room our stay, and this review, would have been better.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Mckinney - Frisco East, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>I really wanted to rate this hotel higher, but due to the low quality construction, that is not possible.  We asked for a top floor room, but the only one available was on the noisy freeway side.  Our room was on the third floor.  We could tell as soon as the person/s in the room above us got in.  It felt and sounded like an elephant working out up there.  We've had this problem in newly constructed buildings before in TX.  They appear to use unskilled labor and do the bare minimum when it comes to soundproofing, insulation, and sturdiness.  It's as if there's just a piece a plywood between their carpet and your ceiling drywall.  Older buildings are nowhere near this bad.  They were up all night and the stomping kept my husband awake.  Otherwise this was a great place.  The room layout is efficient and there's room to put your stuff where you want.  The bed was very comfortable.  The window shade cuts out nearly all the light, which is great.  The room was clean and nice.  The location is convenient.  The free breakfast was pretty standard, but not as extensive as you would get from Hampton Inn, for example.  The cinnamon rolls are great.  The evening front desk lady was awesome, wish I had taken her name.  If highway noise bothers you, get an even-numbered room, which faces north.  The elevator is by the rooms ending around...I really wanted to rate this hotel higher, but due to the low quality construction, that is not possible.  We asked for a top floor room, but the only one available was on the noisy freeway side.  Our room was on the third floor.  We could tell as soon as the person/s in the room above us got in.  It felt and sounded like an elephant working out up there.  We've had this problem in newly constructed buildings before in TX.  They appear to use unskilled labor and do the bare minimum when it comes to soundproofing, insulation, and sturdiness.  It's as if there's just a piece a plywood between their carpet and your ceiling drywall.  Older buildings are nowhere near this bad.  They were up all night and the stomping kept my husband awake.  Otherwise this was a great place.  The room layout is efficient and there's room to put your stuff where you want.  The bed was very comfortable.  The window shade cuts out nearly all the light, which is great.  The room was clean and nice.  The location is convenient.  The free breakfast was pretty standard, but not as extensive as you would get from Hampton Inn, for example.  The cinnamon rolls are great.  The evening front desk lady was awesome, wish I had taken her name.  If highway noise bothers you, get an even-numbered room, which faces north.  The elevator is by the rooms ending around x13, and ice is by the elevators.  I can only assume that if we had a top floor even-numbered room our stay, and this review, would have been better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r557748942-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>557748942</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>A new hotel with a nice staff</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on two different nights in January 2018.  The property is very nice and has a very modern feel.   I was greeted on both occasions by friendly staff that were very helpful.   The rooms on both dates were very clean and well stocked.   Very comfortable beds with nice linens.  Both rooms were on the second floor of the property with easy access to both elevator and stairs.   If I had one complaint it would be the continental breakfast .   I didn't find the food to be very good tasting kinda that industrial type of food if that makes any sense.   But it is what I have grown to expect from hotel breakfasts as I am sure it is difficult to keep food warm and flavorful in that setting. I would recommend this property as I got my monies  worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on two different nights in January 2018.  The property is very nice and has a very modern feel.   I was greeted on both occasions by friendly staff that were very helpful.   The rooms on both dates were very clean and well stocked.   Very comfortable beds with nice linens.  Both rooms were on the second floor of the property with easy access to both elevator and stairs.   If I had one complaint it would be the continental breakfast .   I didn't find the food to be very good tasting kinda that industrial type of food if that makes any sense.   But it is what I have grown to expect from hotel breakfasts as I am sure it is difficult to keep food warm and flavorful in that setting. I would recommend this property as I got my monies  worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r548289029-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>548289029</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will be back </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walked into a big, bright open lobby and was greeted..in a friendly, welcoming way by Mechelle.  Quick check in and off to our room.  Clean and comfortable room.  Good nights rest and a breakfast to get us started.  Clean dining area and had bacon!  All this at a reasonable price.  (Don't raise price because I said reasonable,  lol)   As Arnold said "I'll be baack"    </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r547540873-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>547540873</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Beautiful and brand new!</t>
+  </si>
+  <si>
+    <t>I've now stayed here 3 times and each time has been excellent.  It is a brand new building with very comfortable accommodations.  The staff is friendly and helpful.  As usual, the breakfast is fresh and selfish.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r534201046-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>534201046</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Horrible Wi-Fi small mini fridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you’re staying request rooms away from the elevators. The Wi-Fi doesn’t work properly and always times out. I have done speed tests and they are around 20kbps at peak hours. Can’t get any business associated things done with that speed. The mini fridge is a half of a mini fridge. I would give them 5 stars since it’s a new Hotel and very nice but those two item brought it down significantly. When you travel for business you need Wi-Fi in order to work. I expect more from a new Hotel. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r534084724-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>534084724</t>
+  </si>
+  <si>
+    <t>Happy Camper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff. I received extra towels, wash clothes, blanket and pillows with in hour after the requested. I  asked the front desk about places to have dinner. They gave me a print out of restaurants in the area. Great room. Great breakfast. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r532215715-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>532215715</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>VERY NICE HOTEL</t>
+  </si>
+  <si>
+    <t>¤This new hotel is very nice--clean and attractive. We had a very positive experience with our stay.¤We enjoyed early morning, sitting on the nice patio and visiting with family.¤Navigating to the hotel late at night was a problem for us. Some nearby streets are difficult to locate due to lack of streetlights.¤Located in a quiet, almost rural area. ¤No nearby restaurants. It is some driving distance to restaurants.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r528066970-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
-    <t>56260</t>
-  </si>
-  <si>
-    <t>10637311</t>
-  </si>
-  <si>
     <t>528066970</t>
   </si>
   <si>
@@ -174,15 +417,6 @@
     <t>This new property in McKinney is up to date with all the "NEW" things we need. Charging ports everywhere, electronic drapes, pillow choices and quick access. Even the bill is under the door so you don't need to check out.</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>harris55_99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r528053976-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -195,9 +429,6 @@
     <t>The location was wonderful because the wedding was only 3 miles away and being a Holiday Inn Express I knew what to expect. I wasn't disappointed. The IHG hotels are always worldwide. I look for one wherever and whenever I travel.</t>
   </si>
   <si>
-    <t>88reisah</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r522000463-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -207,18 +438,9 @@
     <t>09/06/2017</t>
   </si>
   <si>
-    <t>Weekend getaway</t>
-  </si>
-  <si>
     <t>Appears to be brand new.  Exceptionally clean.  Room had great darkening shades-no sun coming through. Had two queen beds-room was large and very clean.  Great décor.  A/C was perfectly cool.  Our son used the pool which was very clean and we had it to ourselves.  Great location-easy driving distance to restaurants and shopping.  We had a room on the back side which overlooked the baseball fields at Craig Ranch.  Our son liked watching a practice.  It might get loud though on the back side on a game night.  Breakfast had the usual fare with an excellent attendant keeping everything stocked.  Would definitely stay here again.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>reisa h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r521981128-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -231,9 +453,6 @@
     <t>Extremely clean hotel.  Looks brand new.  We were there for a birthday getaway weekend.  The hotel is close to anything that you could need in the Frisco or McKinney area.  Lots of great shopping and restaurants within an easy driving distance.  Our view was of the baseball fields at Craig Ranch behind the hotel.  Our son had fun watching some kids practicing.  The pool was nice and very clean and we had it to ourselves.  I liked that the shades in the room kept the room very dark.  The A/C kept the room as cool as we wanted.  The breakfast area was clean and the staff kept all of the usual breakfast foods supplied.  Our son kept calling it a 5-star hotel.  :)  We would definitely stay there again without hesitation.  The staff that we encountered were friendly.More</t>
   </si>
   <si>
-    <t>galvanize83</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r516308440-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -250,12 +469,6 @@
   </si>
   <si>
     <t>August 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>duderthegreat</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r515916277-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
@@ -282,9 +495,6 @@
 For me the best part of this stay was how quiet the rooms were.  The fact that the hotel is located near a softball field is a plus to me...We had a great experience staying at this hotel!  The staff was very friendly and accommodating.  I'll absolutely stay here again on my next visit to the area.  This is my new go-to hotel for the area.We were in the area for a long awaited trip to see The Star in Frisco.  I felt like we were in the middle of everything, yet close enough to not be in the busyness of Frisco, McKinney, or Allen.  The area is constantly evolving, but due to it's exact location, I don't think it'll be affected by the change happening to the area it is located.We stayed in a 2 queen bed suite.  The room was clean from top to bottom, and the modern and colorful decor was such a great touch.  It instantly kind of elevated my already happy vacation mood.  Something that really impressed me was how fast the TV was functioning between switching channels.  I've stayed in plenty of 4 and 5 star hotels (new and remodeled ones) and the TVs weren't nearly as good as the setup here.  Honestly, the same can be said for the room decor, too.  The Wi-fi was solid and we didn't have any drops in service--and we used the Wi-Fi a ton.For me the best part of this stay was how quiet the rooms were.  The fact that the hotel is located near a softball field is a plus to me because at night everybody goes home.  That said, you don't have to worry about any loudness coming from the area surrounding the hotel.  At one point when I was in my room by myself, the A/C had turned off for a moment (like all of them do).  I sat in silence, and couldn't hear anything inside or outside the room.  That is a major plus.  My friends staying across the hall (highway side) also commented about the quietness of their room.The rest of the property was impressive to say the least.  We often sat outside and chatted.  Again it was peaceful and quiet.  At one point, I think I met one of the owners.  He was very cordial, and took a moment to say hello and genuinely ask us about our plans for the area.  He also gave a great recommendation for a "restaurant row" area in nearby Frisco.  Truly a class act.More</t>
   </si>
   <si>
-    <t>chris v</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r515900787-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -295,9 +505,6 @@
   </si>
   <si>
     <t>Clean, Classy, Friendly all words that describe my experience here. Rooms were kept clean! Breakfast was amazing with good selection! The staff always greeted me with a smile and a kind word! Great overall experience!</t>
-  </si>
-  <si>
-    <t>littleyao</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r507960364-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
@@ -343,9 +550,6 @@
 -This hotel is located right in front of a huge sporting area that includes many soccer fields, baseball fields, and a hockey rink.  This means that many MANY youth sports teams stay here....which means that there are MANY kids running around in this hotel...at all hours.  We could hear them in the room upstairs...up and down the hallway.  We weren't the only ones who heard people...my parents down the hall heard...We were visiting for a wedding and we booked about 6 rooms in the hotel.  We had grandparents, parents, and kids ranging from 1-12 years old. We stayed on the 2nd floor in a standard room with 2 queen beds.  PROS:-the decor is modern-the beds and linens are comfy-the bathrooms are pretty clean-located right by the highway, but never seemed loud-lobby is a nice place to lounge-free breakfast in the morningCONS:-Even though it appeared clean, there was something that irked me...there is a half-wall between the toilet and the sink area and if you went on the toilet side of the wall (which can't be seen at the door), there were 3 smudges of something on the wall.  Kind of like someone picked their nose and wiped it on the wall...and not in a hidden spot.  Just smudges on the WHITE wall...and the cleaning people somehow missed it?!  That's a red flag to me that maybe the cleaning isn't as thorough.  -This hotel is located right in front of a huge sporting area that includes many soccer fields, baseball fields, and a hockey rink.  This means that many MANY youth sports teams stay here....which means that there are MANY kids running around in this hotel...at all hours.  We could hear them in the room upstairs...up and down the hallway.  We weren't the only ones who heard people...my parents down the hall heard them as well.  -Because of all the kids, realize that the pool will always be crowded.  The water was murky after all these "pool parties."  And again, lots of kids running around the pool.  -The other thing is some of the clientele....when my 9 year old and I walked into the lobby, we were greeted with a woman spanking a tween with her lanyard and screaming at him to face the corner.  Wow.  What a greeting.  The front desk lady apologized for the scene, but this was not a good first impression.  -Breakfast has a decent amount of choices, but some are not too tasty.  The pancake machine is awesome to watch, but the end products are not yummy.  All 4 of my kids couldn't finish their pancakes.  That says a lot.  Overall, it's a good, budget, clean (for the most part) hotel.  But, honestly, we would probably not return to this hotel on another visit.  The clientele it attracts just isn't our cup of tea.  I would rather pay a bit more and stay at a quieter location that doesn't attract large groups of kids.More</t>
   </si>
   <si>
-    <t>erinsman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r502496340-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -366,9 +570,6 @@
 The rooms have modern decor and plenty of plug outlets for your electronic devices, including dedicated USB ports to charge your smartphones and tablets.  There were multiple tabletops (desk, table on wheels, etc) which is a plus when you have a family that needs to eat meals in the room.  The beds were very comfortable and you are provided with both firm and soft pillows so you can choose which one suits your preference.  The bathrooms are very spacious and my wife is a big fan of the mirror, which has built-in lighting behind the mirror on all four sides.  It is almost like the mirror is glowing from behind!  There is DirecTV satellite service here with plenty of TV channels, the room has a mini-fridge and microwave, and there is a Keurig personal coffee machine in the room.  Everything just worked in the room and things were...This hotel is still really new, and it shows!  The decor is modern and things haven't had a chance to be worn out yet.  Check-in was very fast, and it was the only opportunity I had (or even needed) to interact with the staff.  After getting my key card and going to my room on the third floor, I got off the elevator and immediately smelled new carpet.  That was a great sign (almost like that new car smell)!  I found my room, opened the door, and saw more of the same.The rooms have modern decor and plenty of plug outlets for your electronic devices, including dedicated USB ports to charge your smartphones and tablets.  There were multiple tabletops (desk, table on wheels, etc) which is a plus when you have a family that needs to eat meals in the room.  The beds were very comfortable and you are provided with both firm and soft pillows so you can choose which one suits your preference.  The bathrooms are very spacious and my wife is a big fan of the mirror, which has built-in lighting behind the mirror on all four sides.  It is almost like the mirror is glowing from behind!  There is DirecTV satellite service here with plenty of TV channels, the room has a mini-fridge and microwave, and there is a Keurig personal coffee machine in the room.  Everything just worked in the room and things were clean, so I have absolutely no complaints.  I had no problem with noise.Breakfast was exactly what you'd imagine at a Holiday Inn Express, with a variety of hot and cold items.  There are fruit/healthy options as well, and a variety of juices (as well as water and coffee).  It seems that the breakfast area is a little on the small side, but there wasn't a problem finding seating while my family was there.  There is some outdoor seating as well, so if the weather is cooperating, that is a plus.The location of the hotel is just like I like it... suburban, but not so far as to be unnecessarily out of reasonable driving distance to get to shopping/food options.  There are a lot of options on Stacy Rd, which is just down the street from this hotel.If I am in the area again and I can get a reasonable rate at this hotel, I'm definitely staying here again.More</t>
   </si>
   <si>
-    <t>FootlooseFoodiee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r487567435-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -390,9 +591,6 @@
     <t>This hotel looks new and has a clean thoughtful design.  The folks behind the front desk were friendly and helpful.  The woman working the breakfast room was warm and motherly, making sure everyone had what they needed and offering choices as she brought in refills.  The variety offered included scrambled eggs, premade omelets, bacon, sausages, biscuits and gravy, a pancake machine, juices, cereals, yogurt, muffins and items for toasting, cinnamon rolls and more.  The quiet room had a comfortable mattress and a choice of pillow firmnesses.  The blackout shade did just that.  Lots of outlets and USB ports are available.   The hotel was not walkable to anything but the sports complex across the street, so a vehicle is needed to reach shopping and restaurants.  Freeway access is close by.More</t>
   </si>
   <si>
-    <t>McMarcus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r485700665-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -408,9 +606,6 @@
     <t>We stayed two times on different days.The first one was everything right, and enjoyed the hotel.The second one, our room had the bath not properly cleaned, but the Manager, immediately changeed our room and gave us an upgrade. Thats service!!</t>
   </si>
   <si>
-    <t>MsSylviaM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r485099751-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -429,9 +624,6 @@
     <t>We had a very enjoyable stay in this new hotel on the south side of McKinney.  The staff was friendly and our room was really nice.  It was quiet and the beds were comfortable.  We particularly liked all the electrical outlets - they were nearly everywhere in the room.  Please note that you will need a car if staying here.  It is close to stores, restaurants, movie theaters and anything else you might need.  However, these places are not within walking distance (except for the McKinney ball fields which are directly across the street).  The hotel is very convenient to Allen, Plano and Frisco as well as McKinney.We will definitely stay here again.More</t>
   </si>
   <si>
-    <t>donbradley1234</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r477770563-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -450,9 +642,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>ROGER C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r474341130-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
   </si>
   <si>
@@ -475,9 +664,6 @@
   </si>
   <si>
     <t>Brand new hotel. They're still working out the kinks. The AC stopped working in my room, so I was moved to another. Front desk is helpful. Pool is not open yet. This hotel is reasonably priced for it's location and being brand new.More</t>
-  </si>
-  <si>
-    <t>CharliV02</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d10637311-r472519605-Holiday_Inn_Express_Suites_Mckinney_Frisco_East-McKinney_Texas.html</t>
@@ -1000,47 +1186,43 @@
       <c r="A2" t="n">
         <v>65121</v>
       </c>
-      <c r="B2" t="n">
-        <v>156015</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1054,54 +1236,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65121</v>
       </c>
-      <c r="B3" t="n">
-        <v>156016</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1115,33 +1293,29 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65121</v>
       </c>
-      <c r="B4" t="n">
-        <v>156017</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -1159,21 +1333,17 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1187,91 +1357,79 @@
       <c r="A5" t="n">
         <v>65121</v>
       </c>
-      <c r="B5" t="n">
-        <v>156018</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65121</v>
       </c>
-      <c r="B6" t="n">
-        <v>156019</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>73</v>
@@ -1292,150 +1450,130 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65121</v>
       </c>
-      <c r="B7" t="n">
-        <v>156020</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
       <c r="O7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65121</v>
       </c>
-      <c r="B8" t="n">
-        <v>156021</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
       <c r="R8" t="n">
         <v>5</v>
       </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1443,67 +1581,67 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65121</v>
       </c>
-      <c r="B9" t="n">
-        <v>90813</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1511,67 +1649,57 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65121</v>
       </c>
-      <c r="B10" t="n">
-        <v>156022</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1585,26 +1713,22 @@
       <c r="A11" t="n">
         <v>65121</v>
       </c>
-      <c r="B11" t="n">
-        <v>156023</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>108</v>
@@ -1622,10 +1746,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1639,188 +1763,164 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65121</v>
       </c>
-      <c r="B12" t="n">
-        <v>156024</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
         <v>115</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>117</v>
       </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>112</v>
-      </c>
       <c r="O12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65121</v>
       </c>
-      <c r="B13" t="n">
-        <v>16659</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>112</v>
-      </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65121</v>
       </c>
-      <c r="B14" t="n">
-        <v>156025</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1834,51 +1934,51 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65121</v>
       </c>
-      <c r="B15" t="n">
-        <v>88122</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -1888,61 +1988,53 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>140</v>
-      </c>
-      <c r="X15" t="s">
-        <v>141</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65121</v>
       </c>
-      <c r="B16" t="n">
-        <v>156026</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1953,14 +2045,803 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
         <v>140</v>
       </c>
-      <c r="X16" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>141</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
         <v>149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" t="s">
+        <v>196</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" t="s">
+        <v>201</v>
+      </c>
+      <c r="L28" t="s">
+        <v>202</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65121</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>203</v>
+      </c>
+      <c r="X29" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
